--- a/test/check02/check02_test08_in.xlsx
+++ b/test/check02/check02_test08_in.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HFCCode\test\check02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\test\check02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
   </bookViews>
   <sheets>
-    <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
-    <sheet name="2. duplicates" sheetId="2" r:id="rId2"/>
-    <sheet name="3. consent" sheetId="3" r:id="rId3"/>
-    <sheet name="4. no miss" sheetId="4" r:id="rId4"/>
-    <sheet name="5. follow up" sheetId="5" r:id="rId5"/>
-    <sheet name="6. skip" sheetId="6" r:id="rId6"/>
-    <sheet name="7. all miss" sheetId="7" r:id="rId7"/>
-    <sheet name="8. constraints" sheetId="8" r:id="rId8"/>
-    <sheet name="9. specify" sheetId="9" r:id="rId9"/>
-    <sheet name="10. dates" sheetId="10" r:id="rId10"/>
-    <sheet name="11. outliers" sheetId="11" r:id="rId11"/>
-    <sheet name="enumdb" sheetId="13" r:id="rId12"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId13"/>
+    <sheet name="0. setup" sheetId="15" r:id="rId1"/>
+    <sheet name="1. incomplete" sheetId="1" r:id="rId2"/>
+    <sheet name="2. duplicates" sheetId="2" r:id="rId3"/>
+    <sheet name="3. consent" sheetId="3" r:id="rId4"/>
+    <sheet name="4. no miss" sheetId="4" r:id="rId5"/>
+    <sheet name="5. follow up" sheetId="5" r:id="rId6"/>
+    <sheet name="6. skip" sheetId="6" r:id="rId7"/>
+    <sheet name="7. all miss" sheetId="7" r:id="rId8"/>
+    <sheet name="8. constraints" sheetId="8" r:id="rId9"/>
+    <sheet name="9. specify" sheetId="9" r:id="rId10"/>
+    <sheet name="10. dates" sheetId="10" r:id="rId11"/>
+    <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
+    <sheet name="enumdb" sheetId="13" r:id="rId13"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -128,12 +129,84 @@
   <si>
     <t>name id</t>
   </si>
+  <si>
+    <t>High Frequency Checks</t>
+  </si>
+  <si>
+    <t>1. File Definitions</t>
+  </si>
+  <si>
+    <t>Stata Dataset</t>
+  </si>
+  <si>
+    <t>HFC Input File</t>
+  </si>
+  <si>
+    <t>HFC Output File</t>
+  </si>
+  <si>
+    <t>HFC Enumerator File</t>
+  </si>
+  <si>
+    <t>HFC Research File</t>
+  </si>
+  <si>
+    <t>Replacements File (opt.)</t>
+  </si>
+  <si>
+    <t>Master Tracking Dataset (opt.)</t>
+  </si>
+  <si>
+    <t>2. Important Variables</t>
+  </si>
+  <si>
+    <t>Submission Date</t>
+  </si>
+  <si>
+    <t>Survey ID</t>
+  </si>
+  <si>
+    <t>Enumerator ID</t>
+  </si>
+  <si>
+    <t>Form Version</t>
+  </si>
+  <si>
+    <t>Geographic Cluster</t>
+  </si>
+  <si>
+    <t>3. Survey Definitions</t>
+  </si>
+  <si>
+    <t>Target Sample Size</t>
+  </si>
+  <si>
+    <t>SurveyCTO Server Name</t>
+  </si>
+  <si>
+    <t>Missing Value (.d)</t>
+  </si>
+  <si>
+    <t>Missing Value (.r)</t>
+  </si>
+  <si>
+    <t>Missing Value (.n)</t>
+  </si>
+  <si>
+    <t>4. HFC Options</t>
+  </si>
+  <si>
+    <t>Use SD for Outliers</t>
+  </si>
+  <si>
+    <t>Use Label for Factors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -143,16 +216,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -160,11 +257,187 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -173,6 +446,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,28 +864,89 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1876211</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>339754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5940B48C-16FD-4212-9CB7-7C9453A35C37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924086" y="0"/>
+          <a:ext cx="1505164" cy="720754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1362075"/>
+          <a:off x="5572125" y="47624"/>
+          <a:ext cx="3648075" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -595,17 +980,17 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 1</a:t>
+            <a:t>HFC Check # 9</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that all</a:t>
+            <a:t>Check specify</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> surveys are complete.</a:t>
+            <a:t> other variables for recodes or recategorizations.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -613,12 +998,14 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>Often</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -626,26 +1013,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="1514475"/>
-          <a:ext cx="3667125" cy="600075"/>
+          <a:off x="5572125" y="2181225"/>
+          <a:ext cx="3667125" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,7 +1074,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
+            <a:t>specify_variable</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
@@ -691,7 +1084,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the survey status variable. </a:t>
+            <a:t>This column specifies the names of the specify other variables.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -701,97 +1094,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2181225"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>complete_value</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6972300" y="4000500"/>
+          <a:off x="5572125" y="3810000"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -861,25 +1188,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="4695825"/>
+          <a:off x="5572125" y="4514850"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -933,25 +1266,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11191875" y="314325"/>
+          <a:off x="9810750" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -959,7 +1298,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1015,7 +1360,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1057,7 +1408,2928 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2924175"/>
+          <a:ext cx="3667125" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>other_variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the names of the original select_one or select_multiple questions containing the other choice options.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="47625"/>
+          <a:ext cx="3648075" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> variables.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>This check verifies that:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    1. survey start and end dates are unmissing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    2. survey start and end dates are equal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    3. survey start dates are not before start of data collection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    4. survey start dates are not after the current date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    5. survey start dates within the same geographic cluster </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>        are within X days of each other (OPTIONAL).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="1971675"/>
+          <a:ext cx="3667125" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>startdate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable containing the survey start date. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="2686050"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enddate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This column specifies the variable containing the survey end date. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3381375"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>surveystart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This column specifies the variable containing date that data collection began.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="4076700"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>enum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable representing geographic clusters.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="4772025"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>days</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the number of days to that surveys within the same cluster should fall within</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="5476875"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="6172200"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13954125" y="590550"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="47625"/>
+          <a:ext cx="3648075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check that continuous</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> variables have no outliers.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>This check verifies whether certain continuous variables contain outliers, where an outlier is defined to be a certain multiple of the IQR or SD (Note: IQR or SD is specified in the master_check file).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="1495425"/>
+          <a:ext cx="3667125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the continuous variable or variables. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="2181225"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>multiplier</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the multiple of the interquartile range or standard deviation that signifies an outlier.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="2876550"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="3571875"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9810750" y="361950"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display key productivity and survey administration statistics by enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of enumerator statistics to help with field management. It can be used to identify enumerators who may need re-training or to highlight those who have done an exemplary job. It can also help identify faulty devices.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>dkrf_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables with don't know or refusal options. Rates of don't know and refusal for these variables are output per enumerator.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>missing_variable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="3362325"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>duration_variable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies time duration variables. Mean duration per enumerator is output for these variables.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="4067175"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>exclude</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>_variable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies variables to exclude from the summary page.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6953250" y="4781550"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12582525" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="47625"/>
+          <a:ext cx="3648075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check that all</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> surveys are complete.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>It is an IPA best practice to terminate surveys with a field for the enumerator to enter the status of the interview. This check verifies that all surveys in memory are completed, and lists incomplete surveys in the output file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="1514475"/>
+          <a:ext cx="3667125" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of the survey status variable. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2181225"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>complete_value</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the value of the survey status variable that corresponds with a completed survey.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="4000500"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="4695825"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11191875" y="314325"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1115,7 +4387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1175,30 +4453,36 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8334375" y="47625"/>
-          <a:ext cx="3648075" cy="1828800"/>
+          <a:off x="6962775" y="47625"/>
+          <a:ext cx="3648075" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,67 +4516,23 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check #</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
-            <a:t> 10</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 2</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check date</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> variables.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>Check that there are no duplicates.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies that:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    1. survey start and end dates are unmissing</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    2. survey start and end dates are equal</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    3. survey start dates are not before start of data collection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    4. survey start dates are not after the current date</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    5. survey start dates within the same geographic cluster </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>        are within X days of each other (OPTIONAL).</a:t>
+            <a:t>Duplicate surveys can arise from a variety of data collection sources. Here we check that certain identifying variables are unique and output any duplicates to the output file. The program also accommodates variable combinations that should be unique.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1305,565 +4545,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="1971675"/>
-          <a:ext cx="3667125" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>startdate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the variable containing the survey start date. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="2686050"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enddate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This column specifies the variable containing the survey end date. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="3381375"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>surveystart</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This column specifies the variable containing date that data collection began.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="4076700"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>enum</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>area</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the variable representing geographic clusters.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="4772025"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>days</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the number of days to that surveys within the same cluster should fall within</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="5476875"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="6172200"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13954125" y="590550"/>
+          <a:off x="9810750" y="323850"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -1871,7 +4576,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1927,7 +4638,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1969,1451 +4686,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="47625"/>
-          <a:ext cx="3648075" cy="1362075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 11</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that continuous</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> variables have no outliers.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies whether certain continuous variables contain outliers, where an outlier is defined to be a certain multiple of the IQR or SD (Note: IQR or SD is specified in the master_check file).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="1495425"/>
-          <a:ext cx="3667125" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of the continuous variable or variables. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="2181225"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>multiplier</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the multiple of the interquartile range or standard deviation that signifies an outlier.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="2876550"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="3571875"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9810750" y="361950"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="47625"/>
-          <a:ext cx="3648075" cy="1628775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>Enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
-            <a:t> Dashboard</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Display key productivity and survey administration statistics by enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-            <a:t>This</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> command produces a spreadsheet of enumerator statistics to help with field management. It can be used to identify enumerators who may need re-training or to highlight those who have done an exemplary job. It can also help identify faulty devices.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="1762125"/>
-          <a:ext cx="3667125" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>dkrf_variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of variables with don't know or refusal options. Rates of don't know and refusal for these variables are output per enumerator.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="2657475"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>missing_variable</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="3362325"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>duration_variable</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies time duration variables. Mean duration per enumerator is output for these variables.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="4067175"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>exclude</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>_variable</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies variables to exclude from the summary page.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6953250" y="4781550"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="12582525" y="495300"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6962775" y="47625"/>
-          <a:ext cx="3648075" cy="1476375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check that there are no duplicates.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>Duplicate surveys can arise from a variety of data collection sources. Here we check that certain identifying variables are unique and output any duplicates to the output file. The program also accommodates variable combinations that should be unique.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Group 3"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9810750" y="323850"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="TextBox 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Rectangle 1"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3471,7 +4750,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3558,7 +4843,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3646,7 +4937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3706,7 +5003,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3723,7 +5020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3807,7 +5110,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3882,7 +5191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3954,7 +5269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4042,7 +5363,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4114,7 +5441,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4127,7 +5460,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4183,7 +5522,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvPr id="14" name="Rectangle 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4225,7 +5570,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4271,7 +5622,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4288,7 +5639,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4370,7 +5727,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4445,7 +5808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4533,7 +5902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4605,7 +5980,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4618,7 +5999,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4674,7 +6061,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4716,7 +6109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4762,7 +6161,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4779,7 +6178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4878,7 +6283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4953,7 +6364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5049,7 +6466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5121,7 +6544,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5134,7 +6563,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5190,7 +6625,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5232,7 +6673,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5290,7 +6737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5358,7 +6811,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5375,7 +6828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5469,7 +6928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5544,7 +7009,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5616,7 +7087,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5704,7 +7181,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5776,7 +7259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5847,7 +7336,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5860,7 +7355,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5916,7 +7417,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvPr id="10" name="Rectangle 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5958,7 +7465,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvPr id="11" name="Rectangle 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6004,7 +7517,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6021,7 +7534,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6105,7 +7624,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6180,7 +7705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6252,7 +7783,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6265,7 +7802,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6321,7 +7864,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6363,7 +7912,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6409,7 +7964,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6426,7 +7981,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6531,7 +8092,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6606,7 +8173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6678,7 +8251,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6766,7 +8345,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6838,7 +8423,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6909,7 +8500,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6997,7 +8594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7069,7 +8672,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -7082,7 +8691,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7138,7 +8753,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7180,7 +8801,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7221,576 +8848,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="47624"/>
-          <a:ext cx="3648075" cy="2047875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check # 9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check specify</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> other variables for recodes or recategorizations.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-            <a:t>Often</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t> categorical questions will include an other category with the option for the respondent to identify their own category in a separate text box. This check lists the non-missing values for these specify other variables in the output file to facilitate recodes (a user specifies a value that matches one of the original categories) or re-categorizations (if many similar other values are encountered).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2181225"/>
-          <a:ext cx="3667125" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>specify_variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the specify other variables.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="3810000"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>keep</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="4514850"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9810750" y="695325"/>
-          <a:ext cx="1095375" cy="723900"/>
-          <a:chOff x="10401300" y="1847850"/>
-          <a:chExt cx="1095375" cy="723900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 6"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10401300" y="1847850"/>
-            <a:ext cx="1095375" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Required</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="1"/>
-              <a:t>Optional</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="1933575"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11134727" y="2266950"/>
-            <a:ext cx="209548" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572125" y="2924175"/>
-          <a:ext cx="3667125" cy="790575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>other_variable</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the names of the original select_one or select_multiple questions containing the other choice options.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8093,45 +9150,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="27"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="28"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="28"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="D20 A8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>$A1="variable"</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8140,7 +9475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -8207,7 +9542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -8265,7 +9600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -8514,7 +9849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8536,9 +9871,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" activeCellId="1" sqref="D20 A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="23" priority="2">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1048576">
+    <cfRule type="expression" dxfId="22" priority="1">
+      <formula>$A1&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -8593,7 +9977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8636,7 +10020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -8703,7 +10087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8755,7 +10139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8821,7 +10205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B602"/>
   <sheetViews>
@@ -9378,7 +10762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
@@ -9890,102 +11274,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="D17" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>$A1="specify_variable"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/test/check02/check02_test08_in.xlsx
+++ b/test/check02/check02_test08_in.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="0. setup" sheetId="15" r:id="rId1"/>
@@ -24,15 +24,17 @@
     <sheet name="9. specify" sheetId="9" r:id="rId10"/>
     <sheet name="10. dates" sheetId="10" r:id="rId11"/>
     <sheet name="11. outliers" sheetId="11" r:id="rId12"/>
-    <sheet name="enumdb" sheetId="13" r:id="rId13"/>
-    <sheet name="researchdb" sheetId="14" r:id="rId14"/>
+    <sheet name="research oneway" sheetId="16" r:id="rId13"/>
+    <sheet name="enumdb" sheetId="13" r:id="rId14"/>
+    <sheet name="research twoway" sheetId="17" r:id="rId15"/>
+    <sheet name="researchdb" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>variable</t>
   </si>
@@ -200,6 +202,12 @@
   </si>
   <si>
     <t>Use Label for Factors</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>by</t>
   </si>
 </sst>
 </file>
@@ -447,24 +455,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -498,11 +488,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -3076,6 +3142,531 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E80E6D7-BACB-4664-9317-03945B8FC207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: One-Way Summary</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display one-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of one-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB8B757-E154-4134-8828-630A1BFBDE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EBB090-0EC4-4657-BAED-D87E89193EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C024E7-64F5-447E-855D-336A3E855245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2C045A-EFD2-4B36-A1B1-08EF70367A3D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF554E1-A2FF-42DF-AB59-2943EBC82ABE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9569B1D-5F72-4A05-B05B-59AF0EFB0779}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D965062D-69DA-4881-A262-CF83DAFBE5C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="3371850"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3751,6 +4342,608 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E6172D-C0B3-410D-B13E-7A2F216186A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>Research</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> Dashboard: Two-Way Summaries</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Display two-way summaries of important research variables to monitor responses frequecies</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>/distributions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> command produces a spreadsheet of two-way variable summaries. It can be used to monitor response frequencies/distributions for key variables and help identify any threats to research validity.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BEBAA9-352A-4524-84A9-CE9D2A20D98E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1762125"/>
+          <a:ext cx="3667125" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the list of variables which will be used to create one-way summaries</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43915ACF-F219-4626-9791-04E6F535B00F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2657475"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the name of variables whose rates of missing values are output per enumerator</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A33DD32-D659-477B-86DE-0FA89E0492B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3352800"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>by</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB61A14-4921-4B4E-A268-3D8EB752CCDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9820275" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953A1B9B-D61F-4B24-81C1-D997D86E041D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C59B711-6873-4492-989D-361B22FFF15B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B268D2EB-32DD-4D96-A8F9-3A4E1DA6095B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4F89A7-D9F0-4A07-8945-FAA6ECBCD395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="4048125"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>notes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9152,221 +10345,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="29" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A29" s="27"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="28"/>
+      <c r="A31" s="22"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="28"/>
+      <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9461,12 +10654,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9528,12 +10721,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A1="startdate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9586,12 +10779,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9601,6 +10794,197 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:C89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$A1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1048576">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", #REF!&lt;&gt;"", $C1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
@@ -9835,12 +11219,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$A1="dkrf_variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR($A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"", $E1&lt;&gt;"", $F1&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9849,7 +11233,196 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:D89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A$1="variable"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:D1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>OR(#REF!&lt;&gt;"", #REF!&lt;&gt;"", $A1&lt;&gt;"", $B1&lt;&gt;"", $C1&lt;&gt;"", $D1&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9904,12 +11477,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9963,12 +11536,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10006,12 +11579,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10073,12 +11646,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1048576">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10125,12 +11698,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10191,12 +11764,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1048576">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10748,12 +12321,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11262,12 +12835,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
